--- a/data/trans_orig/P14B31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A735A46-788E-4EB6-8979-55B14019F4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B2837B-2F14-4144-A889-A9892DDF008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B661C79-BEAF-4830-87A8-A41F2CA5B2CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D1E07BD-23EE-43D2-80D8-A4C4C9E4AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="202">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -90,7 +90,7 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>83,71%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>16,29%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -117,19 +117,19 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -141,10 +141,13 @@
     <t>41,51%</t>
   </si>
   <si>
+    <t>81,59%</t>
+  </si>
+  <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>84,22%</t>
+    <t>69,29%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -153,10 +156,13 @@
     <t>58,49%</t>
   </si>
   <si>
+    <t>18,41%</t>
+  </si>
+  <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>30,71%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -171,19 +177,19 @@
     <t>56,6%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>20,34%</t>
@@ -195,19 +201,19 @@
     <t>43,4%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -216,55 +222,55 @@
     <t>52,77%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -273,109 +279,109 @@
     <t>56,22%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>43,78%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -396,139 +402,139 @@
     <t>13,59%</t>
   </si>
   <si>
-    <t>42,68%</t>
+    <t>59,86%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>57,32%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>42,76%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>57,24%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>36,87%</t>
@@ -543,19 +549,19 @@
     <t>65,28%</t>
   </si>
   <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>63,13%</t>
@@ -570,73 +576,73 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46168839-D222-49B2-B759-DD639035E788}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C52BE29-3ACA-4706-84BF-FC9F69C84F4A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1503,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1512,13 +1518,13 @@
         <v>2062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -1548,10 +1554,10 @@
         <v>2905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -1563,10 +1569,10 @@
         <v>3852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>15</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1637,10 +1643,10 @@
         <v>4319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -1652,13 +1658,13 @@
         <v>4149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1667,13 +1673,13 @@
         <v>8468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,13 +1694,13 @@
         <v>1103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1703,13 +1709,13 @@
         <v>3182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1718,13 +1724,13 @@
         <v>4285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,7 +1786,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1792,13 +1798,13 @@
         <v>4564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1807,13 +1813,13 @@
         <v>7955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1822,13 +1828,13 @@
         <v>12519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1849,13 @@
         <v>4085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1858,13 +1864,13 @@
         <v>3221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1873,13 +1879,13 @@
         <v>7307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,7 +1941,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1947,13 +1953,13 @@
         <v>10582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1962,13 +1968,13 @@
         <v>15478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -1977,13 +1983,13 @@
         <v>26060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2004,13 @@
         <v>8242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2013,13 +2019,13 @@
         <v>7119</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2028,13 +2034,13 @@
         <v>15361</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2108,13 @@
         <v>21518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2117,13 +2123,13 @@
         <v>32617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -2132,13 +2138,13 @@
         <v>54136</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2159,13 @@
         <v>18398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2168,13 +2174,13 @@
         <v>19385</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -2183,13 +2189,13 @@
         <v>37782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2251,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDD7C08-A380-4FD2-A363-4ACC00F3FBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671392AC-F710-4786-A4E2-2D477131BCE5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2284,7 +2290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2389,13 +2395,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2438,13 +2444,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2456,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -2471,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -2487,13 +2493,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2546,20 +2552,20 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2574,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -2602,13 +2608,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2620,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -2651,13 +2657,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2689,13 +2695,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2719,13 +2725,13 @@
         <v>2951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,10 +2746,10 @@
         <v>5942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -2770,13 +2776,13 @@
         <v>5942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2838,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2844,13 +2850,13 @@
         <v>3177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2859,13 +2865,13 @@
         <v>3157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2874,13 +2880,13 @@
         <v>6334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2901,13 @@
         <v>6160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2910,13 +2916,13 @@
         <v>4227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2925,13 +2931,13 @@
         <v>10387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,7 +2993,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2999,13 +3005,13 @@
         <v>5617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3014,13 +3020,13 @@
         <v>4402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3029,13 +3035,13 @@
         <v>10019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>5524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3065,13 +3071,13 @@
         <v>8859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3080,13 +3086,13 @@
         <v>14384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3148,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3154,13 +3160,13 @@
         <v>5398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3169,13 +3175,13 @@
         <v>21686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3184,13 +3190,13 @@
         <v>27084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>9241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3220,13 +3226,13 @@
         <v>11532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3235,13 +3241,13 @@
         <v>20773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3315,13 @@
         <v>15126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3324,13 +3330,13 @@
         <v>31262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3339,13 +3345,13 @@
         <v>46388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3366,13 @@
         <v>30346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3375,13 +3381,13 @@
         <v>25564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -3390,13 +3396,13 @@
         <v>55910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B2837B-2F14-4144-A889-A9892DDF008E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F835A0D-7EB3-43BA-86AD-F6EFA9F96D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D1E07BD-23EE-43D2-80D8-A4C4C9E4AF1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01B77394-3C10-44AD-B546-A369FE5E03AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="198">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -117,19 +117,19 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -141,13 +141,10 @@
     <t>41,51%</t>
   </si>
   <si>
-    <t>81,59%</t>
-  </si>
-  <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>69,29%</t>
+    <t>75,37%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -156,13 +153,10 @@
     <t>58,49%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>30,71%</t>
+    <t>24,63%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -171,49 +165,43 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>20,41%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>56,6%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>79,59%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -222,55 +210,55 @@
     <t>52,77%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>71,17%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -279,115 +267,115 @@
     <t>56,22%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>62,91%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>43,78%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>37,09%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
+    <t>Población cuya enfermedad de riñón le limita en 2016 (Tasa respuesta: 1,46%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -402,40 +390,40 @@
     <t>13,59%</t>
   </si>
   <si>
-    <t>59,86%</t>
+    <t>56,08%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>40,14%</t>
+    <t>43,92%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>42,76%</t>
@@ -450,19 +438,19 @@
     <t>37,88%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>57,24%</t>
@@ -477,172 +465,172 @@
     <t>62,12%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>66,81%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>63,13%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>43,41%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C52BE29-3ACA-4706-84BF-FC9F69C84F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB8E5E5-C462-4C9B-83E5-A5966C1C12C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1509,7 +1497,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1518,13 +1506,13 @@
         <v>2062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>20</v>
@@ -1554,10 +1542,10 @@
         <v>2905</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>15</v>
@@ -1569,10 +1557,10 @@
         <v>3852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>15</v>
@@ -1631,7 +1619,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1643,10 +1631,10 @@
         <v>4319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -1658,13 +1646,13 @@
         <v>4149</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1673,13 +1661,13 @@
         <v>8468</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,13 +1682,13 @@
         <v>1103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1709,13 +1697,13 @@
         <v>3182</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1724,13 +1712,13 @@
         <v>4285</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1774,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1798,13 +1786,13 @@
         <v>4564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1813,13 +1801,13 @@
         <v>7955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1828,13 +1816,13 @@
         <v>12519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1837,13 @@
         <v>4085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1864,13 +1852,13 @@
         <v>3221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1879,13 +1867,13 @@
         <v>7307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1929,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1953,13 +1941,13 @@
         <v>10582</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -1968,13 +1956,13 @@
         <v>15478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -1983,13 +1971,13 @@
         <v>26060</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +1992,13 @@
         <v>8242</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2019,13 +2007,13 @@
         <v>7119</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2034,13 +2022,13 @@
         <v>15361</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2096,13 @@
         <v>21518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2123,13 +2111,13 @@
         <v>32617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -2138,13 +2126,13 @@
         <v>54136</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2147,13 @@
         <v>18398</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -2174,13 +2162,13 @@
         <v>19385</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -2189,13 +2177,13 @@
         <v>37782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,7 +2239,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671392AC-F710-4786-A4E2-2D477131BCE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66277E3A-CD91-43FF-BF92-1FB4BC2457A6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2290,7 +2278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2395,13 +2383,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2444,13 +2432,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2462,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -2477,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -2493,13 +2481,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2552,20 +2540,20 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2580,7 +2568,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -2608,13 +2596,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2626,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -2657,13 +2645,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2695,13 +2683,13 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2725,13 +2713,13 @@
         <v>2951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,10 +2734,10 @@
         <v>5942</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -2776,13 +2764,13 @@
         <v>5942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,7 +2826,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2850,13 +2838,13 @@
         <v>3177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2865,13 +2853,13 @@
         <v>3157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2880,13 +2868,13 @@
         <v>6334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2889,13 @@
         <v>6160</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2916,13 +2904,13 @@
         <v>4227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2931,13 +2919,13 @@
         <v>10387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,7 +2981,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3005,13 +2993,13 @@
         <v>5617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3020,13 +3008,13 @@
         <v>4402</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3035,13 +3023,13 @@
         <v>10019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3044,13 @@
         <v>5524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3071,13 +3059,13 @@
         <v>8859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3086,13 +3074,13 @@
         <v>14384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,7 +3136,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3160,13 +3148,13 @@
         <v>5398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3175,13 +3163,13 @@
         <v>21686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3190,13 +3178,13 @@
         <v>27084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3199,13 @@
         <v>9241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -3226,13 +3214,13 @@
         <v>11532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3241,13 +3229,13 @@
         <v>20773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3303,13 @@
         <v>15126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>28</v>
@@ -3330,13 +3318,13 @@
         <v>31262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -3345,13 +3333,13 @@
         <v>46388</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3354,13 @@
         <v>30346</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3381,13 +3369,13 @@
         <v>25564</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
         <v>53</v>
@@ -3396,13 +3384,13 @@
         <v>55910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3446,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
